--- a/Kenya Model/Models/Multi_coffee/Graph_inputs.xlsx
+++ b/Kenya Model/Models/Multi_coffee/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/federica_inzoli_feem_it/Documents/REP/CIVICS Kenya/Energy_Model/Kenya_Operation_2015_2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\Models\Multi_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{40FE9726-4BFA-4BED-9972-D6EF040650E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84B4FB16-5D4A-40F0-8284-1D2F0EA74890}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4673AE-142D-4704-A100-8BE96E9AA9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="1365" yWindow="345" windowWidth="20460" windowHeight="10890" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand Technology" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
     <t>2015-01-01 00:00:00'</t>
   </si>
   <si>
-    <t>2015-12-31 23:00:00'</t>
+    <t>2015-01-01 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kenya Model/Models/Multi_coffee/Graph_inputs.xlsx
+++ b/Kenya Model/Models/Multi_coffee/Graph_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\Models\Multi_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4673AE-142D-4704-A100-8BE96E9AA9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F134CA29-C4B4-408E-BE9A-9E39E8F08FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="345" windowWidth="20460" windowHeight="10890" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="1365" yWindow="345" windowWidth="20460" windowHeight="10890" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand Technology" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Tech</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>2015-01-01 23:00:00'</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>Imports</t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,6 +990,17 @@
       </c>
       <c r="C17" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
